--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Calr-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Calr-Itga3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>93.32574466666667</v>
+        <v>62.41592166666667</v>
       </c>
       <c r="H2">
-        <v>279.977234</v>
+        <v>187.247765</v>
       </c>
       <c r="I2">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="J2">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N2">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O2">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P2">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q2">
-        <v>1192.602722773065</v>
+        <v>702.6472173571927</v>
       </c>
       <c r="R2">
-        <v>10733.42450495758</v>
+        <v>6323.824956214735</v>
       </c>
       <c r="S2">
-        <v>0.1677759836369645</v>
+        <v>0.1146843730841666</v>
       </c>
       <c r="T2">
-        <v>0.1677759836369646</v>
+        <v>0.1146843730841666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.32574466666667</v>
+        <v>62.41592166666667</v>
       </c>
       <c r="H3">
-        <v>279.977234</v>
+        <v>187.247765</v>
       </c>
       <c r="I3">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="J3">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N3">
         <v>2.969483</v>
       </c>
       <c r="O3">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P3">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q3">
-        <v>92.37640408333577</v>
+        <v>61.78100610616612</v>
       </c>
       <c r="R3">
-        <v>831.387636750022</v>
+        <v>556.0290549554951</v>
       </c>
       <c r="S3">
-        <v>0.01299556152604601</v>
+        <v>0.01008374583826593</v>
       </c>
       <c r="T3">
-        <v>0.01299556152604602</v>
+        <v>0.01008374583826593</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.32574466666667</v>
+        <v>62.41592166666667</v>
       </c>
       <c r="H4">
-        <v>279.977234</v>
+        <v>187.247765</v>
       </c>
       <c r="I4">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="J4">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N4">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O4">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P4">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q4">
-        <v>367.0306486933647</v>
+        <v>238.5275627547433</v>
       </c>
       <c r="R4">
-        <v>3303.275838240283</v>
+        <v>2146.74806479269</v>
       </c>
       <c r="S4">
-        <v>0.05163406634378447</v>
+        <v>0.03893188974790425</v>
       </c>
       <c r="T4">
-        <v>0.05163406634378449</v>
+        <v>0.03893188974790426</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.32574466666667</v>
+        <v>62.41592166666667</v>
       </c>
       <c r="H5">
-        <v>279.977234</v>
+        <v>187.247765</v>
       </c>
       <c r="I5">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="J5">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N5">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O5">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P5">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q5">
-        <v>2.777623029932445</v>
+        <v>10.99433574320389</v>
       </c>
       <c r="R5">
-        <v>24.998607269392</v>
+        <v>98.949021688835</v>
       </c>
       <c r="S5">
-        <v>0.0003907574811970962</v>
+        <v>0.001794468790367686</v>
       </c>
       <c r="T5">
-        <v>0.0003907574811970963</v>
+        <v>0.001794468790367687</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>494.369293</v>
       </c>
       <c r="I6">
-        <v>0.4110597662007076</v>
+        <v>0.4369365253446571</v>
       </c>
       <c r="J6">
-        <v>0.4110597662007076</v>
+        <v>0.436936525344657</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N6">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O6">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P6">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q6">
-        <v>2105.836094113263</v>
+        <v>1855.120717052579</v>
       </c>
       <c r="R6">
-        <v>18952.52484701937</v>
+        <v>16696.08645347321</v>
       </c>
       <c r="S6">
-        <v>0.2962501387273</v>
+        <v>0.3027882999819392</v>
       </c>
       <c r="T6">
-        <v>0.2962501387273</v>
+        <v>0.3027882999819392</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>494.369293</v>
       </c>
       <c r="I7">
-        <v>0.4110597662007076</v>
+        <v>0.4369365253446571</v>
       </c>
       <c r="J7">
-        <v>0.4110597662007076</v>
+        <v>0.436936525344657</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N7">
         <v>2.969483</v>
       </c>
       <c r="O7">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P7">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q7">
-        <v>163.1134679206132</v>
+        <v>163.1134679206133</v>
       </c>
       <c r="R7">
         <v>1468.021211285519</v>
       </c>
       <c r="S7">
-        <v>0.02294688918803081</v>
+        <v>0.0266229842628841</v>
       </c>
       <c r="T7">
-        <v>0.02294688918803081</v>
+        <v>0.0266229842628841</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>494.369293</v>
       </c>
       <c r="I8">
-        <v>0.4110597662007076</v>
+        <v>0.4369365253446571</v>
       </c>
       <c r="J8">
-        <v>0.4110597662007076</v>
+        <v>0.436936525344657</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N8">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O8">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P8">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q8">
-        <v>648.0837020622545</v>
+        <v>629.7575971605087</v>
       </c>
       <c r="R8">
-        <v>5832.75331856029</v>
+        <v>5667.818374444579</v>
       </c>
       <c r="S8">
-        <v>0.09117275897186636</v>
+        <v>0.1027875062211043</v>
       </c>
       <c r="T8">
-        <v>0.09117275897186636</v>
+        <v>0.1027875062211043</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>494.369293</v>
       </c>
       <c r="I9">
-        <v>0.4110597662007076</v>
+        <v>0.4369365253446571</v>
       </c>
       <c r="J9">
-        <v>0.4110597662007076</v>
+        <v>0.436936525344657</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N9">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O9">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P9">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q9">
-        <v>4.904582825931556</v>
+        <v>29.02711275818078</v>
       </c>
       <c r="R9">
-        <v>44.14124543338401</v>
+        <v>261.244014823627</v>
       </c>
       <c r="S9">
-        <v>0.0006899793135104309</v>
+        <v>0.004737734878729465</v>
       </c>
       <c r="T9">
-        <v>0.0006899793135104309</v>
+        <v>0.004737734878729466</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.93870866666666</v>
+        <v>57.486235</v>
       </c>
       <c r="H10">
-        <v>140.816126</v>
+        <v>172.458705</v>
       </c>
       <c r="I10">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="J10">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N10">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O10">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P10">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q10">
-        <v>599.8262532944195</v>
+        <v>647.1512713504217</v>
       </c>
       <c r="R10">
-        <v>5398.436279649776</v>
+        <v>5824.361442153795</v>
       </c>
       <c r="S10">
-        <v>0.08438387548180697</v>
+        <v>0.1056264594978329</v>
       </c>
       <c r="T10">
-        <v>0.08438387548180698</v>
+        <v>0.1056264594978329</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>46.93870866666666</v>
+        <v>57.486235</v>
       </c>
       <c r="H11">
-        <v>140.816126</v>
+        <v>172.458705</v>
       </c>
       <c r="I11">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="J11">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N11">
         <v>2.969483</v>
       </c>
       <c r="O11">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P11">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q11">
-        <v>46.46123247587311</v>
+        <v>56.90146585550168</v>
       </c>
       <c r="R11">
-        <v>418.151092282858</v>
+        <v>512.113192699515</v>
       </c>
       <c r="S11">
-        <v>0.006536190829331674</v>
+        <v>0.009287319124030568</v>
       </c>
       <c r="T11">
-        <v>0.006536190829331674</v>
+        <v>0.009287319124030568</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>46.93870866666666</v>
+        <v>57.486235</v>
       </c>
       <c r="H12">
-        <v>140.816126</v>
+        <v>172.458705</v>
       </c>
       <c r="I12">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="J12">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N12">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O12">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P12">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q12">
-        <v>184.6001309958887</v>
+        <v>219.68836092377</v>
       </c>
       <c r="R12">
-        <v>1661.401178962998</v>
+        <v>1977.19524831393</v>
       </c>
       <c r="S12">
-        <v>0.02596964434672111</v>
+        <v>0.0358570009587369</v>
       </c>
       <c r="T12">
-        <v>0.02596964434672111</v>
+        <v>0.03585700095873691</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>46.93870866666666</v>
+        <v>57.486235</v>
       </c>
       <c r="H13">
-        <v>140.816126</v>
+        <v>172.458705</v>
       </c>
       <c r="I13">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="J13">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N13">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O13">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P13">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q13">
-        <v>1.397021139809778</v>
+        <v>10.12598951238833</v>
       </c>
       <c r="R13">
-        <v>12.573190258288</v>
+        <v>91.13390561149501</v>
       </c>
       <c r="S13">
-        <v>0.0001965336749762051</v>
+        <v>0.001652739426554585</v>
       </c>
       <c r="T13">
-        <v>0.0001965336749762052</v>
+        <v>0.001652739426554585</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>95.835818</v>
+        <v>92.45614233333333</v>
       </c>
       <c r="H14">
-        <v>287.507454</v>
+        <v>277.368427</v>
       </c>
       <c r="I14">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="J14">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N14">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O14">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P14">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q14">
-        <v>1224.678762480923</v>
+        <v>1040.824991498786</v>
       </c>
       <c r="R14">
-        <v>11022.1088623283</v>
+        <v>9367.424923489072</v>
       </c>
       <c r="S14">
-        <v>0.1722884579172938</v>
+        <v>0.1698809284256953</v>
       </c>
       <c r="T14">
-        <v>0.1722884579172939</v>
+        <v>0.1698809284256953</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>95.835818</v>
+        <v>92.45614233333333</v>
       </c>
       <c r="H15">
-        <v>287.507454</v>
+        <v>277.368427</v>
       </c>
       <c r="I15">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="J15">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N15">
         <v>2.969483</v>
       </c>
       <c r="O15">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P15">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q15">
-        <v>94.86094411403134</v>
+        <v>91.51564763480457</v>
       </c>
       <c r="R15">
-        <v>853.7484970262819</v>
+        <v>823.640828713241</v>
       </c>
       <c r="S15">
-        <v>0.01334508793544923</v>
+        <v>0.01493696184532626</v>
       </c>
       <c r="T15">
-        <v>0.01334508793544923</v>
+        <v>0.01493696184532626</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>95.835818</v>
+        <v>92.45614233333333</v>
       </c>
       <c r="H16">
-        <v>287.507454</v>
+        <v>277.368427</v>
       </c>
       <c r="I16">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="J16">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N16">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O16">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P16">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q16">
-        <v>376.9022425080381</v>
+        <v>353.3287293305046</v>
       </c>
       <c r="R16">
-        <v>3392.120182572342</v>
+        <v>3179.958563974542</v>
       </c>
       <c r="S16">
-        <v>0.0530228073978635</v>
+        <v>0.05766945746729542</v>
       </c>
       <c r="T16">
-        <v>0.05302280739786352</v>
+        <v>0.05766945746729542</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>95.835818</v>
+        <v>92.45614233333333</v>
       </c>
       <c r="H17">
-        <v>287.507454</v>
+        <v>277.368427</v>
       </c>
       <c r="I17">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="J17">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N17">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O17">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P17">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q17">
-        <v>2.852329505861334</v>
+        <v>16.28581046616144</v>
       </c>
       <c r="R17">
-        <v>25.670965552752</v>
+        <v>146.572294195453</v>
       </c>
       <c r="S17">
-        <v>0.0004012672278576408</v>
+        <v>0.002658130449166525</v>
       </c>
       <c r="T17">
-        <v>0.0004012672278576408</v>
+        <v>0.002658130449166526</v>
       </c>
     </row>
   </sheetData>
